--- a/problem_statement/Telecom Churn.xlsx
+++ b/problem_statement/Telecom Churn.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="624" windowWidth="18876" windowHeight="6564" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="overview" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="filedesc" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Steps" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="data dictionary" sheetId="4" r:id="rId7"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
+    <sheet name="filedesc" sheetId="2" r:id="rId2"/>
+    <sheet name="Steps" sheetId="3" r:id="rId3"/>
+    <sheet name="data dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -328,72 +331,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF091E42"/>
       <name val="Freight-text-pro"/>
     </font>
     <font>
-      <sz val="17.0"/>
+      <sz val="17"/>
       <color rgb="FF45526C"/>
       <name val="Circular"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF091E42"/>
       <name val="Freight-text-pro"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF091E42"/>
       <name val="Freight-text-pro"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF202124"/>
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3C4043"/>
       <name val="&quot;Roboto Mono&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3C4043"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF091E42"/>
       <name val="Freight-text-pro"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF091E42"/>
       <name val="Freight-text-pro"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
@@ -403,7 +406,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -431,7 +434,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -445,77 +454,67 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -705,526 +704,534 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="139.75"/>
+    <col min="1" max="1" width="139.77734375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" ht="30">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" ht="30">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" ht="60">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" ht="45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" ht="30">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A13" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="72.25"/>
+    <col min="1" max="1" width="72.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="113.75"/>
+    <col min="1" max="1" width="113.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>